--- a/SpatialOptimization/BackupCoverageCharlotte.xlsx
+++ b/SpatialOptimization/BackupCoverageCharlotte.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Classes\SpatialOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33E6BCD8-34BA-4B7F-9545-ACF6D59ED600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6AE98-2A24-4831-A575-8F90904C0551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="14560" xr2:uid="{F111E974-F493-4026-B0ED-DC87B0CC0680}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="14490" activeTab="2" xr2:uid="{F111E974-F493-4026-B0ED-DC87B0CC0680}"/>
   </bookViews>
   <sheets>
     <sheet name="BackupCoverageCharlotte" sheetId="1" r:id="rId1"/>
     <sheet name="TOTAL_Pop" sheetId="3" r:id="rId2"/>
-    <sheet name="Mapping Stations" sheetId="2" r:id="rId3"/>
+    <sheet name="Problemset 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Mapping Stations" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>P Value</t>
   </si>
@@ -137,6 +138,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G-Value</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Objective Function Value</t>
   </si>
 </sst>
 </file>
@@ -517,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621B25F-3ED4-487A-8516-E1BD194BA3F1}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1047,6 +1081,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E73160-CD1B-4248-9CCE-CF4D119ED05C}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>694</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A60E16-0675-4C2F-87DB-C2B8FDC3C3F8}">
   <dimension ref="A1:C57"/>
   <sheetViews>

--- a/SpatialOptimization/BackupCoverageCharlotte.xlsx
+++ b/SpatialOptimization/BackupCoverageCharlotte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Classes\SpatialOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6AE98-2A24-4831-A575-8F90904C0551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B9510-E2C7-4383-8C39-77A69CDE6167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="14490" activeTab="2" xr2:uid="{F111E974-F493-4026-B0ED-DC87B0CC0680}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{F111E974-F493-4026-B0ED-DC87B0CC0680}"/>
   </bookViews>
   <sheets>
     <sheet name="BackupCoverageCharlotte" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +233,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>305306</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A117E75-0C19-715F-216E-33CAE30FCFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3860800" y="609600"/>
+          <a:ext cx="9836656" cy="4959605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE875508-C2E5-11C2-F3D5-9F7B7F0996FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2813050"/>
+          <a:ext cx="3403775" cy="2813195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,18 +1178,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E73160-CD1B-4248-9CCE-CF4D119ED05C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1107,7 +1204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1117,8 +1214,12 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>694</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1128,8 +1229,12 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>738</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1139,8 +1244,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1150,8 +1258,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1161,8 +1272,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1172,8 +1286,11 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1183,8 +1300,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1194,9 +1314,13 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>832</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
